--- a/single_cycle_MIPS_processor/Proj1_control_signals_no_descriptions.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals_no_descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7240FAE0-DA56-4A04-BD46-45EC30E5135B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D93DD08-4BB1-4782-AB3A-AF50CC5CCC1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,10 +671,10 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:L8"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>

--- a/single_cycle_MIPS_processor/Proj1_control_signals_no_descriptions.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals_no_descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D93DD08-4BB1-4782-AB3A-AF50CC5CCC1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8C95B6-42FD-4B71-9CB4-A2999CA01707}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="32670" yWindow="3600" windowWidth="20565" windowHeight="11445" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>Instruction</t>
   </si>
@@ -267,6 +267,21 @@
   </si>
   <si>
     <t>SignExt</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0 and 3 worked</t>
+  </si>
+  <si>
+    <t>2 and 3 not working</t>
+  </si>
+  <si>
+    <t>None worked</t>
   </si>
 </sst>
 </file>
@@ -671,10 +686,10 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -691,7 +706,9 @@
     <col min="10" max="10" width="11.09765625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.8984375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.796875" style="1"/>
+    <col min="13" max="14" width="10.796875" style="1"/>
+    <col min="15" max="15" width="17.09765625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -750,6 +767,9 @@
       <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -793,6 +813,9 @@
       <c r="L4" s="4">
         <v>0</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -831,6 +854,9 @@
       <c r="L5" s="4">
         <v>0</v>
       </c>
+      <c r="N5" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -907,6 +933,9 @@
       <c r="L7" s="4">
         <v>0</v>
       </c>
+      <c r="N7" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -945,6 +974,9 @@
       <c r="L8" s="4">
         <v>0</v>
       </c>
+      <c r="N8" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1062,6 +1094,9 @@
       <c r="L12" s="4">
         <v>0</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1100,6 +1135,9 @@
       <c r="L13" s="4">
         <v>0</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1138,6 +1176,9 @@
       <c r="L15" s="4">
         <v>0</v>
       </c>
+      <c r="N15" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1176,13 +1217,16 @@
       <c r="L16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1219,8 +1263,11 @@
       <c r="L19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1334,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1372,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1410,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1447,8 +1494,11 @@
       <c r="L25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1486,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1524,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1562,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1638,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>57</v>
       </c>

--- a/single_cycle_MIPS_processor/Proj1_control_signals_no_descriptions.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals_no_descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8C95B6-42FD-4B71-9CB4-A2999CA01707}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEDEF0E-3369-4415-9A01-2ACE6225FADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32670" yWindow="3600" windowWidth="20565" windowHeight="11445" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="35820" yWindow="2160" windowWidth="20565" windowHeight="11445" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
   <si>
     <t>Instruction</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>None worked</t>
+  </si>
+  <si>
+    <t>5 did not work, (3 infinite loop?)</t>
   </si>
 </sst>
 </file>
@@ -686,10 +689,10 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -707,7 +710,7 @@
     <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.8984375" style="1" customWidth="1"/>
     <col min="13" max="14" width="10.796875" style="1"/>
-    <col min="15" max="15" width="17.09765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="26.19921875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
@@ -1068,7 +1071,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>68</v>
@@ -1109,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>69</v>
@@ -1304,6 +1307,9 @@
       <c r="L20" s="4">
         <v>0</v>
       </c>
+      <c r="N20" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1380,6 +1386,9 @@
       <c r="L22" s="4">
         <v>0</v>
       </c>
+      <c r="N22" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1418,6 +1427,9 @@
       <c r="L23" s="4">
         <v>0</v>
       </c>
+      <c r="N23" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -1456,6 +1468,9 @@
       <c r="L24" s="4">
         <v>0</v>
       </c>
+      <c r="N24" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -1535,6 +1550,9 @@
       <c r="L26" s="4">
         <v>0</v>
       </c>
+      <c r="N26" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1611,6 +1629,9 @@
       <c r="L28" s="4">
         <v>0</v>
       </c>
+      <c r="N28" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1649,6 +1670,9 @@
       <c r="L29" s="4">
         <v>0</v>
       </c>
+      <c r="N29" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -1687,6 +1711,9 @@
       <c r="L30" s="4">
         <v>0</v>
       </c>
+      <c r="N30" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
@@ -1699,12 +1726,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1741,8 +1768,11 @@
       <c r="L34" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O34" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>

--- a/single_cycle_MIPS_processor/Proj1_control_signals_no_descriptions.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals_no_descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEDEF0E-3369-4415-9A01-2ACE6225FADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17CC348-9ADB-4341-BD4B-4DDAB372F604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35820" yWindow="2160" windowWidth="20565" windowHeight="11445" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="6168" yWindow="1944" windowWidth="10416" windowHeight="11448" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
   <si>
     <t>Instruction</t>
   </si>
@@ -273,18 +273,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>0 and 3 worked</t>
-  </si>
-  <si>
-    <t>2 and 3 not working</t>
-  </si>
-  <si>
-    <t>None worked</t>
-  </si>
-  <si>
-    <t>5 did not work, (3 infinite loop?)</t>
   </si>
 </sst>
 </file>
@@ -689,10 +677,10 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1097,8 +1085,8 @@
       <c r="L12" s="4">
         <v>0</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>82</v>
+      <c r="N12" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1138,8 +1126,8 @@
       <c r="L13" s="4">
         <v>0</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>83</v>
+      <c r="N13" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1224,12 +1212,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1270,7 +1258,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1349,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1390,7 +1378,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1431,7 +1419,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1472,7 +1460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,11 +1497,11 @@
       <c r="L25" s="4">
         <v>0</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1554,7 +1542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1592,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1633,7 +1621,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1674,7 +1662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1715,7 +1703,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>57</v>
       </c>
@@ -1725,13 +1713,16 @@
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1768,11 +1759,11 @@
       <c r="L34" s="4">
         <v>1</v>
       </c>
-      <c r="O34" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N34" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
@@ -1781,6 +1772,9 @@
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
